--- a/biology/Zoologie/Ermite_de_Koepcke/Ermite_de_Koepcke.xlsx
+++ b/biology/Zoologie/Ermite_de_Koepcke/Ermite_de_Koepcke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaethornis koepckeae
 L'Ermite de Koepcke (Phaethornis koepckeae) est une espèce de colibris de la sous-famille des Phaethornithinae qui a été découverte en 1977.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ermite de Koepcke est endémique du Pérou.
 </t>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, koepckeae, ainsi que son nom vernaculaire (« de Koepcke ») lui ont été donnés en l'honneur de Maria KoepckeMaria Koepcke (1924-1971), ornithologue germano-péruvienne qui a passé près de vingt ans à étudier l'avifaune péruvienne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, koepckeae, ainsi que son nom vernaculaire (« de Koepcke ») lui ont été donnés en l'honneur de Maria KoepckeMaria Koepcke (1924-1971), ornithologue germano-péruvienne qui a passé près de vingt ans à étudier l'avifaune péruvienne.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) John S. Weske et John W. Terborgh, « Phaethornis koepckeae, a New Species of Hummingbird from Peru », The Condor, Santa Clara, Cooper Ornithological Society (d), vol. 79, no 2,‎ 1977, p. 143–147 (ISSN 0010-5422 et 1938-5129, OCLC 6135996, DOI 10.2307/1367156)</t>
         </is>
